--- a/results/mp/logistic/corona/confidence/210/0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,15 @@
     <t>war</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,114 +76,117 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
@@ -196,22 +196,19 @@
     <t>!</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>a</t>
@@ -572,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7842465753424658</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,16 +709,16 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,37 +738,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5294117647058824</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4497354497354497</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4406779661016949</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L7">
         <v>33</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>98</v>
-      </c>
       <c r="M7">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4244186046511628</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8720626631853786</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3154362416107382</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2416666666666667</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1428571428571428</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,37 +1088,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06970509383378017</v>
+        <v>0.01781665046971169</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>347</v>
+        <v>3032</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,37 +1138,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01686668829062601</v>
+        <v>0.01441899915182358</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="F13">
-        <v>0.6799999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3031</v>
+        <v>2324</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7948717948717948</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,37 +1188,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0157312925170068</v>
+        <v>0.01222378937470616</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F14">
-        <v>0.5800000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2315</v>
+        <v>2101</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01413094677343382</v>
+        <v>0.009831906121154456</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2093</v>
+        <v>3122</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,37 +1288,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01182033096926714</v>
+        <v>0.009370543898961092</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>5016</v>
+        <v>4863</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,49 +1338,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00892018779342723</v>
+        <v>0.009235606209471409</v>
       </c>
       <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0.62</v>
+      </c>
+      <c r="F17">
+        <v>0.38</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5042</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>0.7625</v>
+      </c>
+      <c r="L17">
+        <v>122</v>
+      </c>
+      <c r="M17">
+        <v>122</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>38</v>
-      </c>
-      <c r="D17">
-        <v>106</v>
-      </c>
-      <c r="E17">
-        <v>0.64</v>
-      </c>
-      <c r="F17">
-        <v>0.36</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>4222</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L17">
-        <v>25</v>
-      </c>
-      <c r="M17">
-        <v>25</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,87 +1388,63 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007939028262940616</v>
+        <v>0.00842893935846406</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E18">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="F18">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3124</v>
+        <v>4235</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.007115267330758284</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>112</v>
-      </c>
-      <c r="E19">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F19">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4884</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7446808510638298</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1540,16 +1513,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.68</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1561,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6411764705882353</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1587,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1613,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6307692307692307</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1639,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5966101694915255</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1665,47 +1638,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5798319327731093</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M27">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1717,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1743,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5393258426966292</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1769,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1795,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1821,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.3972602739726027</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1847,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.05484460694698354</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1873,189 +1846,189 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>517</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.05254378648874062</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L35">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1136</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.03549695740365112</v>
+        <v>0.05175292153589316</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>951</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.02670176758179767</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="L37">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="O37">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2588</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.02060156571899464</v>
+        <v>0.0258349086326402</v>
       </c>
       <c r="L38">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N38">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="O38">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2377</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.01954652071931196</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N39">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="O39">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1254</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.01831964624131396</v>
+        <v>0.0204935173567545</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N40">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.28</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1554</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.01743388834476004</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="L41">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="N41">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="O41">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>5016</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2063,77 +2036,77 @@
         <v>64</v>
       </c>
       <c r="K42">
-        <v>0.01675977653631285</v>
+        <v>0.01913205786280914</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N42">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="O42">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2112</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43">
-        <v>0.0163727959697733</v>
+        <v>0.01757575757575757</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M43">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="N43">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="O43">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3124</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>0.01590623691921306</v>
+        <v>0.01514195583596215</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2351</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2141,103 +2114,77 @@
         <v>22</v>
       </c>
       <c r="K45">
-        <v>0.01585081585081585</v>
+        <v>0.01484955060570535</v>
       </c>
       <c r="L45">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M45">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="N45">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O45">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>4222</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46">
-        <v>0.01552106430155211</v>
+        <v>0.01328052190121156</v>
       </c>
       <c r="L46">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N46">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O46">
-        <v>0.3100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>4884</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.0126692878986457</v>
+        <v>0.01267482517482517</v>
       </c>
       <c r="L47">
         <v>29</v>
       </c>
       <c r="M47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N47">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="O47">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48">
-        <v>0.01152860802732707</v>
-      </c>
-      <c r="L48">
-        <v>27</v>
-      </c>
-      <c r="M48">
-        <v>64</v>
-      </c>
-      <c r="N48">
-        <v>0.42</v>
-      </c>
-      <c r="O48">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>2315</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>
